--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_6_0.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_6_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,772 +482,710 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8531341862535159</v>
+        <v>0.2024163492347106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6255334127673073</v>
+        <v>0.3948406239393714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3819600209270229</v>
+        <v>-0.8065035772630404</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5001550782557665</v>
+        <v>0.2468434048700721</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1625371873378754</v>
+        <v>0.8826900720596313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3529925346374512</v>
+        <v>0.9849573969841003</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7406436800956726</v>
+        <v>0.4652848243713379</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5354166030883789</v>
+        <v>0.7404056191444397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_22</t>
+          <t>model_6_0_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2240591465519546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3687378973059982</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.088985188000179</v>
       </c>
       <c r="E3" t="n">
-        <v>0.500162625093543</v>
+        <v>0.06584370147039098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8587379455566406</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.027442216873169</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.7956020832061768</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9183410406112671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_21</t>
+          <t>model_6_0_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2527135858110167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3869679897119189</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.799777295980925</v>
       </c>
       <c r="E4" t="n">
-        <v>0.500162625093543</v>
+        <v>-0.005812749379312088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.827025830745697</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3529860973358154</v>
+        <v>0.9977709650993347</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.9786743521690369</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9887842535972595</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_20</t>
+          <t>model_6_0_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.254914037833303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3697398671084932</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.749878594517667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.500162625093543</v>
+        <v>-0.01476125606009449</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8245906233787537</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.025811433792114</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.9658224582672119</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9975812435150146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_19</t>
+          <t>model_6_0_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2567043916014718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3903084423786476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.568386718885416</v>
       </c>
       <c r="E6" t="n">
-        <v>0.500162625093543</v>
+        <v>0.02564401552996776</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8226092457771301</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3529860973358154</v>
+        <v>0.9923338294029236</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.9190771579742432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9578600525856018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_18</t>
+          <t>model_6_0_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2683464508373961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3749652719155759</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.492830259553185</v>
       </c>
       <c r="E7" t="n">
-        <v>0.500162625093543</v>
+        <v>0.02151073679989224</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8097248673439026</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.017306566238403</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8996167778968811</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.961923360824585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_17</t>
+          <t>model_6_0_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2756249166049182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3504862800519563</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.376948781102824</v>
       </c>
       <c r="E8" t="n">
-        <v>0.500162625093543</v>
+        <v>0.01434232118649459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8016697764396667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.057148575782776</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8697702884674072</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9689703583717346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_16</t>
+          <t>model_6_0_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2792865154603218</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3626211923249535</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.224600140395501</v>
       </c>
       <c r="E9" t="n">
-        <v>0.500162625093543</v>
+        <v>0.04376232241523248</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7976174354553223</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.037397861480713</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8305311799049377</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9400485754013062</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_15</t>
+          <t>model_6_0_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2896636957891381</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3728271777415849</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.204644013449982</v>
       </c>
       <c r="E10" t="n">
-        <v>0.500162625093543</v>
+        <v>0.05516831745019524</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7861329317092896</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.02078640460968</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8253912925720215</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9288355708122253</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_14</t>
+          <t>model_6_0_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2954430058926055</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3610778119283345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.28759023976469</v>
       </c>
       <c r="E11" t="n">
-        <v>0.500162625093543</v>
+        <v>0.03464332128555125</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7797369360923767</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.039909839630127</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8467549085617065</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9490131139755249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_13</t>
+          <t>model_6_0_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2974047132925109</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3634082263687678</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.270507476600951</v>
       </c>
       <c r="E12" t="n">
-        <v>0.500162625093543</v>
+        <v>0.03879205430973587</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7775659561157227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.0361168384552</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8423551321029663</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.944934606552124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_23</t>
+          <t>model_6_0_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3027195546715148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3450640335159366</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.228758326712104</v>
       </c>
       <c r="E13" t="n">
-        <v>0.500162625093543</v>
+        <v>0.02786033446741132</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7716839909553528</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.06597375869751</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8316022157669067</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.955681324005127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_12</t>
+          <t>model_6_0_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3036970143367034</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3219393816740728</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.262375052509099</v>
       </c>
       <c r="E14" t="n">
-        <v>0.500162625093543</v>
+        <v>0.003446694317512211</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7706022262573242</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.103611469268799</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8402605652809143</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9796815514564514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_10</t>
+          <t>model_6_0_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3045881339673222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3223176374711687</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.244519857592166</v>
       </c>
       <c r="E15" t="n">
-        <v>0.500162625093543</v>
+        <v>0.005979504747493314</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7696160674095154</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.102995872497559</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8356617093086243</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9771915674209595</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_9</t>
+          <t>model_6_0_17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3048910729745514</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3217990749685621</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.23516462841514</v>
       </c>
       <c r="E16" t="n">
-        <v>0.500162625093543</v>
+        <v>0.00667829634400452</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.769280731678009</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.103839874267578</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8332521915435791</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9765047430992126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_8</t>
+          <t>model_6_0_12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.305194188307486</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3392361143428329</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.221217036542082</v>
       </c>
       <c r="E17" t="n">
-        <v>0.500162625093543</v>
+        <v>0.02368181598163199</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7689452767372131</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.075459241867065</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8296598196029663</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9597890377044678</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_7</t>
+          <t>model_6_0_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3051980635596927</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3217114054982865</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.228332840811606</v>
       </c>
       <c r="E18" t="n">
-        <v>0.500162625093543</v>
+        <v>0.007444064099205505</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7689409255981445</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.103982448577881</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.83149254322052</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9757518768310547</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_6</t>
+          <t>model_6_0_13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3060718651698007</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3336175628866314</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.215280725977293</v>
       </c>
       <c r="E19" t="n">
-        <v>0.500162625093543</v>
+        <v>0.01948907797639621</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7679738998413086</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.084604024887085</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.828130841255188</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9639108180999756</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_5</t>
+          <t>model_6_0_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.306464747561653</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3205162642643946</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.190960433447354</v>
       </c>
       <c r="E20" t="n">
-        <v>0.500162625093543</v>
+        <v>0.01100410760573545</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7675391435623169</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.105927705764771</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8218668699264526</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9722521305084229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_4</t>
+          <t>model_6_0_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3066569798574272</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3195304975502994</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.182372172232732</v>
       </c>
       <c r="E21" t="n">
-        <v>0.500162625093543</v>
+        <v>0.01119919020850302</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7673264145851135</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.107532024383545</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8196548819541931</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9720603823661804</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_3</t>
+          <t>model_6_0_14</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3069200327442847</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3328399173703311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.220061813018225</v>
       </c>
       <c r="E22" t="n">
-        <v>0.500162625093543</v>
+        <v>0.01821774151335565</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.767035186290741</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.085869789123535</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8293622732162476</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9651607275009155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_2</t>
+          <t>model_6_0_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.30737564587596</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3212455600854491</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.173042873273474</v>
       </c>
       <c r="E23" t="n">
-        <v>0.500162625093543</v>
+        <v>0.01385226506640569</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7665311098098755</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.104740619659424</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8172520399093628</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9694522619247437</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_0_1</t>
+          <t>model_6_0_20</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3074748944911292</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6255402656203002</v>
+        <v>0.3228829100443524</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3819691645386273</v>
+        <v>-2.179764245478174</v>
       </c>
       <c r="E24" t="n">
-        <v>0.500162625093543</v>
+        <v>0.0144590809238121</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7664212584495544</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3529860973358154</v>
+        <v>1.102075695991516</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7406327128410339</v>
+        <v>0.8189831972122192</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5354084968566895</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_6_0_11</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.8531364041951562</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.6255402656203002</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.3819691645386273</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.500162625093543</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1625347137451172</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.3529860973358154</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.7406327128410339</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.5354084968566895</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_6_0_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.8531364041951562</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6255402656203002</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.3819691645386273</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.500162625093543</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1625347137451172</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.3529860973358154</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.7406327128410339</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.5354084968566895</v>
+        <v>0.9688556790351868</v>
       </c>
     </row>
   </sheetData>
